--- a/results/I2_N10_T30_C350_0_P4_res.xlsx
+++ b/results/I2_N10_T30_C350_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.2632887764077</v>
+        <v>98.26098846897688</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.9032887764077</v>
+        <v>38.17098846897686</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.406368372795691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.406368372795691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.75</v>
+        <v>60.09</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -744,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -766,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -777,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -868,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1006,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.12074022476545</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1014,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>24.34885042281291</v>
       </c>
     </row>
     <row r="5">
@@ -1022,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1030,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.22705701268761</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>27.06506101847739</v>
       </c>
     </row>
     <row r="8">
@@ -1046,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.34885527085025</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1054,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.72107346555759</v>
+        <v>20.60033324079215</v>
       </c>
     </row>
     <row r="10">
@@ -1062,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.91480702620259</v>
+        <v>22.31224998648502</v>
       </c>
     </row>
     <row r="11">
@@ -1070,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.94987179065702</v>
+        <v>24.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1078,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="13">
@@ -1086,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>26.71671453559703</v>
       </c>
     </row>
     <row r="14">
@@ -1094,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.70861795157474</v>
+        <v>28.25017704655228</v>
       </c>
     </row>
     <row r="15">
@@ -1102,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.01392562639436</v>
+        <v>27.87444125446785</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,34 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191.4200000000015</v>
+        <v>109.9450000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.2700000000015</v>
+        <v>117.5900000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1295,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>197.9850000000015</v>
+        <v>113.2700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>199.5900000000015</v>
+        <v>119.1550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1317,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.15</v>
+        <v>115.8050000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>188.8550000000006</v>
       </c>
     </row>
     <row r="13">
@@ -1339,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>192.9200000000006</v>
       </c>
     </row>
     <row r="14">
@@ -1350,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>178.5050000000006</v>
       </c>
     </row>
     <row r="15">
@@ -1361,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>189.2700000000006</v>
       </c>
     </row>
     <row r="16">
@@ -1372,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>182.1250000000006</v>
       </c>
     </row>
     <row r="17">
@@ -1383,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="18">
@@ -1394,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>30.90499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1405,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>27.59499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1416,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>31.97499999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>33.99499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1438,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>334.89</v>
+        <v>112.9799999999989</v>
       </c>
     </row>
     <row r="23">
@@ -1449,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>362.11</v>
+        <v>110.9599999999989</v>
       </c>
     </row>
     <row r="24">
@@ -1460,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>345.66</v>
+        <v>109.9149999999989</v>
       </c>
     </row>
     <row r="25">
@@ -1471,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>354.195</v>
+        <v>115.9299999999989</v>
       </c>
     </row>
     <row r="26">
@@ -1482,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>329.35</v>
+        <v>114.809999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1493,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.63000000000022</v>
+        <v>258.7350000000008</v>
       </c>
     </row>
     <row r="28">
@@ -1504,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>70.92000000000021</v>
+        <v>269.2400000000008</v>
       </c>
     </row>
     <row r="29">
@@ -1515,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67.65500000000021</v>
+        <v>250.9150000000008</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.84500000000021</v>
+        <v>261.9150000000008</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>65.41000000000022</v>
+        <v>255.0150000000008</v>
       </c>
     </row>
     <row r="32">
@@ -1548,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1559,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1581,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1592,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1603,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>274.4950000000024</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="38">
@@ -1614,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>282.9900000000024</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="39">
@@ -1625,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>275.9600000000024</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="40">
@@ -1636,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>289.3600000000025</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="41">
@@ -1647,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0050000000024</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="42">
@@ -1658,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>262.26</v>
+        <v>180.9049999999984</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>282.055</v>
+        <v>190.1199999999983</v>
       </c>
     </row>
     <row r="44">
@@ -1680,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>263.34</v>
+        <v>169.7349999999983</v>
       </c>
     </row>
     <row r="45">
@@ -1691,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>270.24</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="46">
@@ -1702,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>248.5349999999995</v>
+        <v>173.7399999999984</v>
       </c>
     </row>
     <row r="47">
@@ -1713,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>136.3850000000013</v>
+        <v>266.3899999999988</v>
       </c>
     </row>
     <row r="48">
@@ -1724,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>144.2150000000013</v>
+        <v>278.0849999999988</v>
       </c>
     </row>
     <row r="49">
@@ -1735,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>141.7900000000014</v>
+        <v>249.45</v>
       </c>
     </row>
     <row r="50">
@@ -1746,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>145.8150000000013</v>
+        <v>270.4299999999989</v>
       </c>
     </row>
     <row r="51">
@@ -1757,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>136.6900000000007</v>
+        <v>258.4699999999989</v>
       </c>
     </row>
     <row r="52">
@@ -1768,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>194.3350000000006</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1779,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>202.8950000000006</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1790,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>203.5200000000006</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1801,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>206.4700000000006</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1812,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>189.605</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1823,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>334.89</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1834,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>362.11</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="59">
@@ -1845,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>345.66</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1856,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>354.195</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1867,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>329.35</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1878,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>274.4950000000024</v>
+        <v>258.7350000000008</v>
       </c>
     </row>
     <row r="63">
@@ -1889,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>282.9900000000024</v>
+        <v>269.2400000000008</v>
       </c>
     </row>
     <row r="64">
@@ -1900,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>275.9600000000024</v>
+        <v>250.9150000000008</v>
       </c>
     </row>
     <row r="65">
@@ -1911,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>289.3600000000025</v>
+        <v>261.9150000000008</v>
       </c>
     </row>
     <row r="66">
@@ -1922,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>285.0050000000024</v>
+        <v>255.0150000000008</v>
       </c>
     </row>
     <row r="67">
@@ -1933,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>154.3</v>
+        <v>266.3899999999988</v>
       </c>
     </row>
     <row r="68">
@@ -1944,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>148.3449999999993</v>
+        <v>278.0849999999988</v>
       </c>
     </row>
     <row r="69">
@@ -1955,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>128.7049999999993</v>
+        <v>249.45</v>
       </c>
     </row>
     <row r="70">
@@ -1966,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>146.3249999999993</v>
+        <v>270.4299999999989</v>
       </c>
     </row>
     <row r="71">
@@ -1977,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>134.2149999999993</v>
+        <v>258.4699999999989</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2057,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2335,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13">
@@ -2346,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2357,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="15">
@@ -2368,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="16">
@@ -2379,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="17">
@@ -2445,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2456,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2467,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2489,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2665,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>11.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2676,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>14.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2687,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2698,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>11.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2709,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2778,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2803,28 +2753,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
